--- a/assignments/hw4/Timings Report.xlsx
+++ b/assignments/hw4/Timings Report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J-C Borman\Github\Systems-Programming\assignments\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B7F815-8CFF-4216-B8F6-0437ABD0E56B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA54D29-E13C-4EC8-82D3-735E9BD4C886}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7290" xr2:uid="{7E48E323-11CA-4547-BBD0-014D9E9FFE89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>Matrix Size</t>
   </si>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>Due to locality, the code becomes faster specifically because of an increase in cache hits. That is, the code is written in such a way that data in the cache is efficiently utilized in the transpose operation. The result is fewer cache misses (more cache hits) and therefore fewer calls to lower levels in the memory heirarchy to get the sequence of data that is missing in the current level of cache. It's faster to access data in the current memory level's cache than to request and retrieve it from the next level down.</t>
+  </si>
+  <si>
+    <t>Rectangular Matrix Transpose</t>
   </si>
 </sst>
 </file>
@@ -78,7 +82,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -207,11 +211,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -229,33 +268,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,32 +384,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -1882,25 +1912,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1999,25 +2010,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2093,25 +2085,1523 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286234144"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rectangular Matrix Transpose</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048 x 2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="94000"/>
+                    <a:satMod val="105000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="74000"/>
+                    <a:satMod val="128000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35370.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30058.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41269.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48008.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52440.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58551.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048 x 4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="94000"/>
+                    <a:satMod val="105000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="74000"/>
+                    <a:satMod val="128000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28841.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24156.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28698.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30858.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33700.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37540.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048 x 8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="94000"/>
+                    <a:satMod val="105000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="74000"/>
+                    <a:satMod val="128000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26027.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21907.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24325.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24338.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26469.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096 x 2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="94000"/>
+                    <a:satMod val="105000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="74000"/>
+                    <a:satMod val="128000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>48086.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38462.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58773.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69361.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90488.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096 x 4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="94000"/>
+                    <a:satMod val="105000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="74000"/>
+                    <a:satMod val="128000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>152440.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130673.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189580.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231315.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264662.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304415.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310435.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096 x 8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="94000"/>
+                    <a:satMod val="105000"/>
+                    <a:lumMod val="102000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="74000"/>
+                    <a:satMod val="128000"/>
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>121350.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101195.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126591.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145980.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164120.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185767.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192499.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8192 x 8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>631386.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522948.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1221812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1292686.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1395559.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1420439.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1452769.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5A06-4D23-AA46-FE6B77A6E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
                     </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:tint val="94000"/>
+                      <a:satMod val="105000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:shade val="74000"/>
+                      <a:satMod val="128000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="286233160"/>
+        <c:axId val="286234144"/>
+        <c:axId val="650105592"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="286233160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size (Width)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286234144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286234144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (microsecons)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286233160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="650105592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block Size (Width)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2239,6 +3729,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>321809</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7A06B6-7B4A-453F-B8DC-82EA1D4386BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2510,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D83F44-FFCB-473F-91DC-2F93C6CFCB17}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2525,33 +4058,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
@@ -2590,7 +4123,7 @@
       <c r="N4" s="2">
         <v>4096</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="16">
         <v>8192</v>
       </c>
       <c r="P4" s="6"/>
@@ -2603,7 +4136,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
@@ -2640,13 +4173,13 @@
         <f>INDEX($C$4:$O$4,Q5)</f>
         <v>4</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="16">
         <f>B5</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <v>16</v>
       </c>
@@ -2687,13 +4220,13 @@
         <f t="shared" ref="R6:R11" si="3">INDEX($C$4:$O$4,Q6)</f>
         <v>16</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="17">
         <f t="shared" ref="S6:S11" si="4">B6</f>
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <v>64</v>
       </c>
@@ -2740,13 +4273,13 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="17">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <v>256</v>
       </c>
@@ -2799,13 +4332,13 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="17">
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <v>2048</v>
       </c>
@@ -2867,13 +4400,13 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="17">
         <f t="shared" si="4"/>
         <v>2048</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <v>4096</v>
       </c>
@@ -2938,13 +4471,13 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="17">
         <f t="shared" si="4"/>
         <v>4096</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="9">
         <v>8192</v>
       </c>
@@ -3021,29 +4554,29 @@
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>4</v>
       </c>
       <c r="C15" s="2">
@@ -3062,7 +4595,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="20"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
@@ -3085,7 +4618,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="22"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
@@ -3108,17 +4641,17 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="22"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="24">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="18">
         <v>1</v>
       </c>
       <c r="E18" s="6"/>
@@ -3131,17 +4664,17 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="22"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="24">
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="18">
         <v>1</v>
       </c>
       <c r="E19" s="6"/>
@@ -3154,17 +4687,17 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="22"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="24">
+      <c r="C20" s="18">
         <v>1</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="18">
         <v>1</v>
       </c>
       <c r="E20" s="6"/>
@@ -3177,17 +4710,17 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="22"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="24">
+      <c r="C21" s="18">
         <v>1</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="18">
         <v>0</v>
       </c>
       <c r="E21" s="6"/>
@@ -3200,17 +4733,17 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="22"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="24">
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="18">
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
@@ -3223,12 +4756,12 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="22"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10">
         <v>1</v>
@@ -3251,10 +4784,10 @@
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>16</v>
       </c>
       <c r="C24" s="2">
@@ -3277,34 +4810,34 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="20"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="S24" s="26" t="s">
+      <c r="S24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="24">
+      <c r="C25" s="18">
         <v>2</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="18">
         <v>2</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>2</v>
       </c>
       <c r="G25" s="6"/>
@@ -3315,32 +4848,32 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="22"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="24">
+      <c r="C26" s="18">
         <v>3</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="18">
         <v>3</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="18">
         <v>2</v>
       </c>
       <c r="G26" s="6"/>
@@ -3351,32 +4884,32 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="22"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="24">
+      <c r="C27" s="18">
         <v>2</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="18">
         <v>2</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="18">
         <v>2</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="18">
         <v>2</v>
       </c>
       <c r="G27" s="6"/>
@@ -3387,32 +4920,32 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="22"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="24">
+      <c r="C28" s="18">
         <v>2</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="18">
         <v>2</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="18">
         <v>3</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="18">
         <v>2</v>
       </c>
       <c r="G28" s="6"/>
@@ -3423,32 +4956,32 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="22"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="24">
+      <c r="C29" s="18">
         <v>2</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="18">
         <v>3</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="18">
         <v>2</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="18">
         <v>2</v>
       </c>
       <c r="G29" s="6"/>
@@ -3459,32 +4992,32 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="22"/>
+      <c r="O29" s="17"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="24">
+      <c r="C30" s="18">
         <v>3</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="18">
         <v>3</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="18">
         <v>2</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="18">
         <v>2</v>
       </c>
       <c r="G30" s="6"/>
@@ -3495,23 +5028,23 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="22"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="24">
+      <c r="C31" s="18">
         <v>3</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="18">
         <v>3</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="18">
         <v>2</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="18">
         <v>1</v>
       </c>
       <c r="G31" s="6"/>
@@ -3522,12 +5055,12 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="22"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10">
         <v>2</v>
@@ -3554,10 +5087,10 @@
       <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>64</v>
       </c>
       <c r="C33" s="2">
@@ -3584,29 +5117,29 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="20"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="24">
+      <c r="C34" s="18">
         <v>21</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="18">
         <v>19</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="18">
         <v>19</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="18">
         <v>18</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="18">
         <v>19</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="18">
         <v>17</v>
       </c>
       <c r="I34" s="6"/>
@@ -3615,29 +5148,29 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="22"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="24">
+      <c r="C35" s="18">
         <v>22</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="18">
         <v>19</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="18">
         <v>18</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="18">
         <v>18</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="18">
         <v>19</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="18">
         <v>18</v>
       </c>
       <c r="I35" s="6"/>
@@ -3646,29 +5179,29 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="22"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="24">
+      <c r="C36" s="18">
         <v>21</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="18">
         <v>18</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="18">
         <v>19</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="18">
         <v>18</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="18">
         <v>19</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="18">
         <v>18</v>
       </c>
       <c r="I36" s="6"/>
@@ -3677,29 +5210,29 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="22"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="24">
+      <c r="C37" s="18">
         <v>22</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="18">
         <v>19</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="18">
         <v>18</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="18">
         <v>18</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="18">
         <v>18</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="18">
         <v>18</v>
       </c>
       <c r="I37" s="6"/>
@@ -3708,29 +5241,29 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="22"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="24">
+      <c r="C38" s="18">
         <v>22</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="18">
         <v>19</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="18">
         <v>18</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="18">
         <v>17</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="18">
         <v>19</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="18">
         <v>17</v>
       </c>
       <c r="I38" s="6"/>
@@ -3739,29 +5272,29 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="22"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="24">
+      <c r="C39" s="18">
         <v>21</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="18">
         <v>19</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="18">
         <v>19</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="18">
         <v>18</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="18">
         <v>18</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="18">
         <v>17</v>
       </c>
       <c r="I39" s="6"/>
@@ -3770,29 +5303,29 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="22"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="24">
+      <c r="C40" s="18">
         <v>22</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="18">
         <v>19</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="18">
         <v>19</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="18">
         <v>18</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="18">
         <v>18</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="18">
         <v>17</v>
       </c>
       <c r="I40" s="6"/>
@@ -3801,12 +5334,12 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="22"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10">
         <v>22</v>
@@ -3837,10 +5370,10 @@
       <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>256</v>
       </c>
       <c r="C42" s="2">
@@ -3871,257 +5404,257 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="20"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="24">
+      <c r="C43" s="18">
         <v>337</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="18">
         <v>379</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="18">
         <v>283</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="18">
         <v>277</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="18">
         <v>277</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="18">
         <v>273</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="18">
         <v>294</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="18">
         <v>276</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="22"/>
+      <c r="O43" s="17"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="24">
+      <c r="C44" s="18">
         <v>405</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="18">
         <v>290</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="18">
         <v>282</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="18">
         <v>313</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="18">
         <v>285</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="18">
         <v>274</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="18">
         <v>271</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="18">
         <v>282</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="22"/>
+      <c r="O44" s="17"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="24">
+      <c r="C45" s="18">
         <v>383</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="18">
         <v>288</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="18">
         <v>279</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="18">
         <v>273</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="18">
         <v>296</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="18">
         <v>327</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="18">
         <v>268</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="18">
         <v>293</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="22"/>
+      <c r="O45" s="17"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="24">
+      <c r="C46" s="18">
         <v>340</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="18">
         <v>295</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="18">
         <v>283</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="18">
         <v>302</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="18">
         <v>275</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="18">
         <v>310</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="18">
         <v>271</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="18">
         <v>276</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="22"/>
+      <c r="O46" s="17"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="24">
+      <c r="C47" s="18">
         <v>435</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="18">
         <v>285</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="18">
         <v>298</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="18">
         <v>270</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="18">
         <v>276</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="18">
         <v>275</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="18">
         <v>265</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="18">
         <v>279</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="22"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24">
+      <c r="C48" s="18">
         <v>336</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="18">
         <v>287</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="18">
         <v>288</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="18">
         <v>268</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="18">
         <v>277</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="18">
         <v>280</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="18">
         <v>430</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="18">
         <v>274</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="22"/>
+      <c r="O48" s="17"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24">
+      <c r="C49" s="18">
         <v>347</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="18">
         <v>289</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="18">
         <v>293</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="18">
         <v>264</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="18">
         <v>288</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="18">
         <v>286</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="18">
         <v>267</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="18">
         <v>275</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="22"/>
+      <c r="O49" s="17"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10">
         <v>334</v>
@@ -4156,10 +5689,10 @@
       <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="15">
         <v>2048</v>
       </c>
       <c r="C51" s="2">
@@ -4196,299 +5729,299 @@
         <v>2048</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="20"/>
+      <c r="O51" s="16"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24">
+      <c r="C52" s="18">
         <v>52503</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="18">
         <v>40222</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="18">
         <v>29031</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="18">
         <v>24052</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="18">
         <v>22618</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="18">
         <v>25374</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="18">
         <v>29825</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="18">
         <v>39204</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="18">
         <v>47575</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="18">
         <v>52191</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="18">
         <v>61393</v>
       </c>
       <c r="N52" s="6"/>
-      <c r="O52" s="22"/>
+      <c r="O52" s="17"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="24">
+      <c r="C53" s="18">
         <v>51335</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="18">
         <v>38494</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="18">
         <v>29018</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="18">
         <v>23624</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="18">
         <v>22696</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="18">
         <v>24161</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="18">
         <v>30634</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="18">
         <v>34941</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="18">
         <v>45988</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="18">
         <v>49530</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="18">
         <v>55824</v>
       </c>
       <c r="N53" s="6"/>
-      <c r="O53" s="22"/>
+      <c r="O53" s="17"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="24">
+      <c r="C54" s="18">
         <v>52523</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="18">
         <v>39389</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="18">
         <v>29255</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="18">
         <v>23846</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="18">
         <v>22737</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="18">
         <v>24341</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="18">
         <v>30111</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="18">
         <v>35964</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="18">
         <v>48257</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="18">
         <v>50152</v>
       </c>
-      <c r="M54" s="24">
+      <c r="M54" s="18">
         <v>59000</v>
       </c>
       <c r="N54" s="6"/>
-      <c r="O54" s="22"/>
+      <c r="O54" s="17"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="24">
+      <c r="C55" s="18">
         <v>53392</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="18">
         <v>41559</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="18">
         <v>27635</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="18">
         <v>23796</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="18">
         <v>22739</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="18">
         <v>24686</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="18">
         <v>29382</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="18">
         <v>36844</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="18">
         <v>49785</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="18">
         <v>52166</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M55" s="18">
         <v>56296</v>
       </c>
       <c r="N55" s="6"/>
-      <c r="O55" s="22"/>
+      <c r="O55" s="17"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="24">
+      <c r="C56" s="18">
         <v>51788</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="18">
         <v>40009</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="18">
         <v>29552</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="18">
         <v>23835</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="18">
         <v>22365</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="18">
         <v>25070</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="18">
         <v>28688</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="18">
         <v>37057</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="18">
         <v>47858</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="18">
         <v>51740</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="18">
         <v>56494</v>
       </c>
       <c r="N56" s="6"/>
-      <c r="O56" s="22"/>
+      <c r="O56" s="17"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24">
+      <c r="C57" s="18">
         <v>54335</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="18">
         <v>39969</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="18">
         <v>29312</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="18">
         <v>23407</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="18">
         <v>22592</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="18">
         <v>24979</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="18">
         <v>30358</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="18">
         <v>37516</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="18">
         <v>40062</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="18">
         <v>51944</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="18">
         <v>55460</v>
       </c>
       <c r="N57" s="6"/>
-      <c r="O57" s="22"/>
+      <c r="O57" s="17"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24">
+      <c r="C58" s="18">
         <v>53784</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="18">
         <v>39878</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="18">
         <v>29074</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="18">
         <v>23870</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="18">
         <v>23373</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="18">
         <v>24828</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="18">
         <v>29049</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="18">
         <v>38041</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="18">
         <v>43476</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="18">
         <v>50686</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M58" s="18">
         <v>55291</v>
       </c>
       <c r="N58" s="6"/>
-      <c r="O58" s="22"/>
+      <c r="O58" s="17"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10">
         <v>50944</v>
@@ -4529,10 +6062,10 @@
       <c r="Q59" s="6"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="15">
         <v>4096</v>
       </c>
       <c r="C60" s="2">
@@ -4571,7 +6104,7 @@
       <c r="N60" s="2">
         <v>4096</v>
       </c>
-      <c r="O60" s="20"/>
+      <c r="O60" s="16"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
     </row>
@@ -4614,7 +6147,7 @@
       <c r="N61" s="6">
         <v>291456</v>
       </c>
-      <c r="O61" s="22"/>
+      <c r="O61" s="17"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
     </row>
@@ -4657,7 +6190,7 @@
       <c r="N62" s="6">
         <v>312041</v>
       </c>
-      <c r="O62" s="22"/>
+      <c r="O62" s="17"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
@@ -4700,7 +6233,7 @@
       <c r="N63" s="6">
         <v>313621</v>
       </c>
-      <c r="O63" s="22"/>
+      <c r="O63" s="17"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
@@ -4743,7 +6276,7 @@
       <c r="N64" s="6">
         <v>330672</v>
       </c>
-      <c r="O64" s="22"/>
+      <c r="O64" s="17"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
     </row>
@@ -4786,7 +6319,7 @@
       <c r="N65" s="6">
         <v>296318</v>
       </c>
-      <c r="O65" s="22"/>
+      <c r="O65" s="17"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
     </row>
@@ -4829,7 +6362,7 @@
       <c r="N66" s="6">
         <v>298069</v>
       </c>
-      <c r="O66" s="22"/>
+      <c r="O66" s="17"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
     </row>
@@ -4872,12 +6405,12 @@
       <c r="N67" s="6">
         <v>297111</v>
       </c>
-      <c r="O67" s="22"/>
+      <c r="O67" s="17"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10">
         <v>265155</v>
@@ -4920,10 +6453,10 @@
       <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>8192</v>
       </c>
       <c r="C69" s="2">
@@ -4962,7 +6495,7 @@
       <c r="N69" s="2">
         <v>4096</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O69" s="16">
         <v>8192</v>
       </c>
       <c r="P69" s="6"/>
@@ -5006,7 +6539,7 @@
       <c r="N70" s="6">
         <v>1353878</v>
       </c>
-      <c r="O70" s="22">
+      <c r="O70" s="17">
         <v>1449796</v>
       </c>
       <c r="P70" s="6"/>
@@ -5050,7 +6583,7 @@
       <c r="N71" s="6">
         <v>1328761</v>
       </c>
-      <c r="O71" s="22">
+      <c r="O71" s="17">
         <v>1352316</v>
       </c>
       <c r="P71" s="6"/>
@@ -5094,7 +6627,7 @@
       <c r="N72" s="6">
         <v>1360433</v>
       </c>
-      <c r="O72" s="22">
+      <c r="O72" s="17">
         <v>1450034</v>
       </c>
       <c r="P72" s="6"/>
@@ -5138,7 +6671,7 @@
       <c r="N73" s="6">
         <v>1433397</v>
       </c>
-      <c r="O73" s="22">
+      <c r="O73" s="17">
         <v>1418042</v>
       </c>
       <c r="P73" s="6"/>
@@ -5182,7 +6715,7 @@
       <c r="N74" s="6">
         <v>1342496</v>
       </c>
-      <c r="O74" s="22">
+      <c r="O74" s="17">
         <v>1429631</v>
       </c>
       <c r="P74" s="6"/>
@@ -5226,7 +6759,7 @@
       <c r="N75" s="6">
         <v>1336297</v>
       </c>
-      <c r="O75" s="22">
+      <c r="O75" s="17">
         <v>1342193</v>
       </c>
       <c r="P75" s="6"/>
@@ -5270,14 +6803,14 @@
       <c r="N76" s="6">
         <v>1336697</v>
       </c>
-      <c r="O76" s="22">
+      <c r="O76" s="17">
         <v>1446368</v>
       </c>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10">
         <v>1167252</v>
@@ -5323,20 +6856,2463 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="A15:A23"/>
     <mergeCell ref="A42:A50"/>
     <mergeCell ref="A51:A59"/>
     <mergeCell ref="A60:A68"/>
     <mergeCell ref="A69:A77"/>
     <mergeCell ref="S24:AA29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="A15:A23"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="A33:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7610F05E-F301-48A4-9A72-A8A521D78C1E}">
+  <dimension ref="A1:X76"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="1.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.25" customWidth="1"/>
+    <col min="14" max="14" width="7.25" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E4" s="12">
+        <v>8</v>
+      </c>
+      <c r="F4" s="29">
+        <v>64</v>
+      </c>
+      <c r="G4" s="29">
+        <v>256</v>
+      </c>
+      <c r="H4" s="29">
+        <v>512</v>
+      </c>
+      <c r="I4" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J4" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K4" s="29">
+        <v>4096</v>
+      </c>
+      <c r="L4" s="13">
+        <v>8192</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2048</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT(B5, " x ", C5)</f>
+        <v>2048 x 2048</v>
+      </c>
+      <c r="E5" s="28">
+        <f>AVERAGE(E15:E22)</f>
+        <v>35370.375</v>
+      </c>
+      <c r="F5" s="28">
+        <f>AVERAGE(F15:F22)</f>
+        <v>30058.75</v>
+      </c>
+      <c r="G5" s="28">
+        <f>AVERAGE(G15:G22)</f>
+        <v>41269.75</v>
+      </c>
+      <c r="H5" s="28">
+        <f>AVERAGE(H15:H22)</f>
+        <v>48008.75</v>
+      </c>
+      <c r="I5" s="28">
+        <f>AVERAGE(I15:I22)</f>
+        <v>52440.5</v>
+      </c>
+      <c r="J5" s="28">
+        <f>AVERAGE(J15:J22)</f>
+        <v>58551.875</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="7">
+        <f>MIN(E5:L5)</f>
+        <v>30058.75</v>
+      </c>
+      <c r="N5" s="7">
+        <f>MATCH(M5,E5:L5,)</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <f>INDEX($E$4:$L$4,N5)</f>
+        <v>64</v>
+      </c>
+      <c r="P5" s="17">
+        <f>B5</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4096</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT(B6, " x ", C6)</f>
+        <v>2048 x 4096</v>
+      </c>
+      <c r="E6" s="5">
+        <f>AVERAGE(E24:E31)</f>
+        <v>28841.5</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(F24:F31)</f>
+        <v>24156.25</v>
+      </c>
+      <c r="G6" s="5">
+        <f>AVERAGE(G24:G31)</f>
+        <v>28698.125</v>
+      </c>
+      <c r="H6" s="5">
+        <f>AVERAGE(H24:H31)</f>
+        <v>30858.5</v>
+      </c>
+      <c r="I6" s="5">
+        <f>AVERAGE(I24:I31)</f>
+        <v>33700.5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>AVERAGE(J24:J31)</f>
+        <v>37540.5</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="7">
+        <f>MIN(E6:L6)</f>
+        <v>24156.25</v>
+      </c>
+      <c r="N6" s="7">
+        <f>MATCH(M6,E6:L6,)</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <f>INDEX($E$4:$L$4,N6)</f>
+        <v>64</v>
+      </c>
+      <c r="P6" s="17">
+        <f>P5</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.CONCAT(B7, " x ", C7)</f>
+        <v>2048 x 8192</v>
+      </c>
+      <c r="E7" s="5">
+        <f>AVERAGE(E33:E40)</f>
+        <v>26027.125</v>
+      </c>
+      <c r="F7" s="5">
+        <f>AVERAGE(F33:F40)</f>
+        <v>20615</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(G33:G40)</f>
+        <v>21907.875</v>
+      </c>
+      <c r="H7" s="5">
+        <f>AVERAGE(H33:H40)</f>
+        <v>24325.5</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(I33:I40)</f>
+        <v>24338.625</v>
+      </c>
+      <c r="J7" s="5">
+        <f>AVERAGE(J33:J40)</f>
+        <v>26469.375</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7">
+        <f>MIN(E7:L7)</f>
+        <v>20615</v>
+      </c>
+      <c r="N7" s="7">
+        <f>MATCH(M7,E7:L7,)</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <f>INDEX($E$4:$L$4,N7)</f>
+        <v>64</v>
+      </c>
+      <c r="P7" s="17">
+        <f>P6</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2048</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT(B8, " x ", C8)</f>
+        <v>4096 x 2048</v>
+      </c>
+      <c r="E8" s="5">
+        <f>AVERAGE(E42:E49)</f>
+        <v>48086.75</v>
+      </c>
+      <c r="F8" s="5">
+        <f>AVERAGE(F42:F49)</f>
+        <v>38462.125</v>
+      </c>
+      <c r="G8" s="5">
+        <f>AVERAGE(G42:G49)</f>
+        <v>58773.125</v>
+      </c>
+      <c r="H8" s="5">
+        <f>AVERAGE(H42:H49)</f>
+        <v>69361.375</v>
+      </c>
+      <c r="I8" s="5">
+        <f>AVERAGE(I42:I49)</f>
+        <v>80142</v>
+      </c>
+      <c r="J8" s="5">
+        <f>AVERAGE(J42:J49)</f>
+        <v>90488.75</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7">
+        <f>MIN(E8:L8)</f>
+        <v>38462.125</v>
+      </c>
+      <c r="N8" s="7">
+        <f>MATCH(M8,E8:L8,)</f>
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <f>INDEX($E$4:$L$4,N8)</f>
+        <v>64</v>
+      </c>
+      <c r="P8" s="17">
+        <f>B8</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4096</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT(B9, " x ", C9)</f>
+        <v>4096 x 4096</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9" si="0">AVERAGE(E51:E58)</f>
+        <v>152440.75</v>
+      </c>
+      <c r="F9" s="5">
+        <f>AVERAGE(F51:F58)</f>
+        <v>130673.125</v>
+      </c>
+      <c r="G9" s="5">
+        <f>AVERAGE(G51:G58)</f>
+        <v>189580.375</v>
+      </c>
+      <c r="H9" s="5">
+        <f>AVERAGE(H51:H58)</f>
+        <v>231315.5</v>
+      </c>
+      <c r="I9" s="5">
+        <f>AVERAGE(I51:I58)</f>
+        <v>264662.375</v>
+      </c>
+      <c r="J9" s="5">
+        <f>AVERAGE(J51:J58)</f>
+        <v>304415.75</v>
+      </c>
+      <c r="K9" s="5">
+        <f>AVERAGE(K51:K58)</f>
+        <v>310435.25</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="7">
+        <f>MIN(E9:L9)</f>
+        <v>130673.125</v>
+      </c>
+      <c r="N9" s="7">
+        <f>MATCH(M9,E9:L9,)</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <f>INDEX($E$4:$L$4,N9)</f>
+        <v>64</v>
+      </c>
+      <c r="P9" s="17">
+        <f>P8</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C10" s="11">
+        <v>8192</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT(B10, " x ", C10)</f>
+        <v>4096 x 8192</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10" si="1">AVERAGE(E60:E67)</f>
+        <v>121350.25</v>
+      </c>
+      <c r="F10" s="5">
+        <f>AVERAGE(F60:F67)</f>
+        <v>101195.25</v>
+      </c>
+      <c r="G10" s="5">
+        <f>AVERAGE(G60:G67)</f>
+        <v>126591.125</v>
+      </c>
+      <c r="H10" s="5">
+        <f>AVERAGE(H60:H67)</f>
+        <v>145980.75</v>
+      </c>
+      <c r="I10" s="5">
+        <f>AVERAGE(I60:I67)</f>
+        <v>164120.875</v>
+      </c>
+      <c r="J10" s="5">
+        <f>AVERAGE(J60:J67)</f>
+        <v>185767.875</v>
+      </c>
+      <c r="K10" s="5">
+        <f>AVERAGE(K60:K67)</f>
+        <v>192499.25</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="7">
+        <f>MIN(E10:L10)</f>
+        <v>101195.25</v>
+      </c>
+      <c r="N10" s="7">
+        <f>MATCH(M10,E10:L10,)</f>
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <f>INDEX($E$4:$L$4,N10)</f>
+        <v>64</v>
+      </c>
+      <c r="P10" s="17">
+        <f>P9</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="5">
+        <v>8192</v>
+      </c>
+      <c r="C11" s="11">
+        <v>8192</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT(B11, " x ", C11)</f>
+        <v>8192 x 8192</v>
+      </c>
+      <c r="E11" s="9">
+        <f>AVERAGE(E69:E76)</f>
+        <v>631386.875</v>
+      </c>
+      <c r="F11" s="9">
+        <f>AVERAGE(F69:F76)</f>
+        <v>522948.875</v>
+      </c>
+      <c r="G11" s="9">
+        <f>AVERAGE(G69:G76)</f>
+        <v>754400</v>
+      </c>
+      <c r="H11" s="9">
+        <f>AVERAGE(H69:H76)</f>
+        <v>1221812</v>
+      </c>
+      <c r="I11" s="9">
+        <f>AVERAGE(I69:I76)</f>
+        <v>1292686.375</v>
+      </c>
+      <c r="J11" s="9">
+        <f>AVERAGE(J69:J76)</f>
+        <v>1395559.125</v>
+      </c>
+      <c r="K11" s="9">
+        <f>AVERAGE(K69:K76)</f>
+        <v>1420439.625</v>
+      </c>
+      <c r="L11" s="9">
+        <f>AVERAGE(L69:L76)</f>
+        <v>1452769.75</v>
+      </c>
+      <c r="M11" s="7">
+        <f>MIN(E11:L11)</f>
+        <v>522948.875</v>
+      </c>
+      <c r="N11" s="7">
+        <f>MATCH(M11,E11:L11,)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="9">
+        <f>INDEX($E$4:$L$4,N11)</f>
+        <v>64</v>
+      </c>
+      <c r="P11">
+        <f>B11</f>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2048</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2048</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="12">
+        <v>8</v>
+      </c>
+      <c r="F14" s="29">
+        <v>64</v>
+      </c>
+      <c r="G14" s="29">
+        <v>256</v>
+      </c>
+      <c r="H14" s="29">
+        <v>512</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J14" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>35570</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30141</v>
+      </c>
+      <c r="G15" s="6">
+        <v>44069</v>
+      </c>
+      <c r="H15" s="6">
+        <v>48651</v>
+      </c>
+      <c r="I15" s="6">
+        <v>51593</v>
+      </c>
+      <c r="J15" s="6">
+        <v>56909</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>35319</v>
+      </c>
+      <c r="F16" s="6">
+        <v>30253</v>
+      </c>
+      <c r="G16" s="6">
+        <v>41516</v>
+      </c>
+      <c r="H16" s="6">
+        <v>48793</v>
+      </c>
+      <c r="I16" s="6">
+        <v>52009</v>
+      </c>
+      <c r="J16" s="6">
+        <v>57395</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>36057</v>
+      </c>
+      <c r="F17" s="6">
+        <v>30028</v>
+      </c>
+      <c r="G17" s="6">
+        <v>41074</v>
+      </c>
+      <c r="H17" s="6">
+        <v>48436</v>
+      </c>
+      <c r="I17" s="6">
+        <v>52110</v>
+      </c>
+      <c r="J17" s="6">
+        <v>56135</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>35048</v>
+      </c>
+      <c r="F18" s="6">
+        <v>29426</v>
+      </c>
+      <c r="G18" s="6">
+        <v>40675</v>
+      </c>
+      <c r="H18" s="6">
+        <v>46564</v>
+      </c>
+      <c r="I18" s="6">
+        <v>52489</v>
+      </c>
+      <c r="J18" s="6">
+        <v>57847</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>34815</v>
+      </c>
+      <c r="F19" s="6">
+        <v>30419</v>
+      </c>
+      <c r="G19" s="6">
+        <v>39653</v>
+      </c>
+      <c r="H19" s="6">
+        <v>48412</v>
+      </c>
+      <c r="I19" s="6">
+        <v>53197</v>
+      </c>
+      <c r="J19" s="6">
+        <v>58854</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>35272</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30279</v>
+      </c>
+      <c r="G20" s="6">
+        <v>41896</v>
+      </c>
+      <c r="H20" s="6">
+        <v>47310</v>
+      </c>
+      <c r="I20" s="6">
+        <v>53166</v>
+      </c>
+      <c r="J20" s="6">
+        <v>57928</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>35288</v>
+      </c>
+      <c r="F21" s="6">
+        <v>29806</v>
+      </c>
+      <c r="G21" s="6">
+        <v>41417</v>
+      </c>
+      <c r="H21" s="6">
+        <v>49014</v>
+      </c>
+      <c r="I21" s="6">
+        <v>52604</v>
+      </c>
+      <c r="J21" s="6">
+        <v>59655</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
+        <v>35594</v>
+      </c>
+      <c r="F22" s="10">
+        <v>30118</v>
+      </c>
+      <c r="G22" s="10">
+        <v>39858</v>
+      </c>
+      <c r="H22" s="10">
+        <v>46890</v>
+      </c>
+      <c r="I22" s="10">
+        <v>52356</v>
+      </c>
+      <c r="J22" s="10">
+        <v>63692</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>2048</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4096</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="12">
+        <v>8</v>
+      </c>
+      <c r="F23" s="29">
+        <v>64</v>
+      </c>
+      <c r="G23" s="29">
+        <v>256</v>
+      </c>
+      <c r="H23" s="29">
+        <v>512</v>
+      </c>
+      <c r="I23" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J23" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>28467</v>
+      </c>
+      <c r="F24" s="6">
+        <v>23671</v>
+      </c>
+      <c r="G24" s="6">
+        <v>27553</v>
+      </c>
+      <c r="H24" s="6">
+        <v>30818</v>
+      </c>
+      <c r="I24" s="6">
+        <v>33191</v>
+      </c>
+      <c r="J24" s="6">
+        <v>37245</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>29644</v>
+      </c>
+      <c r="F25" s="6">
+        <v>23768</v>
+      </c>
+      <c r="G25" s="6">
+        <v>27843</v>
+      </c>
+      <c r="H25" s="6">
+        <v>33223</v>
+      </c>
+      <c r="I25" s="6">
+        <v>33871</v>
+      </c>
+      <c r="J25" s="6">
+        <v>36204</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="18">
+        <v>29057</v>
+      </c>
+      <c r="F26" s="6">
+        <v>24660</v>
+      </c>
+      <c r="G26" s="6">
+        <v>29682</v>
+      </c>
+      <c r="H26" s="6">
+        <v>30028</v>
+      </c>
+      <c r="I26" s="6">
+        <v>33661</v>
+      </c>
+      <c r="J26" s="6">
+        <v>37361</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="18">
+        <v>28874</v>
+      </c>
+      <c r="F27" s="6">
+        <v>24217</v>
+      </c>
+      <c r="G27" s="6">
+        <v>28611</v>
+      </c>
+      <c r="H27" s="6">
+        <v>30045</v>
+      </c>
+      <c r="I27" s="6">
+        <v>33643</v>
+      </c>
+      <c r="J27" s="6">
+        <v>36862</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="18">
+        <v>28018</v>
+      </c>
+      <c r="F28" s="6">
+        <v>24115</v>
+      </c>
+      <c r="G28" s="6">
+        <v>28365</v>
+      </c>
+      <c r="H28" s="6">
+        <v>30566</v>
+      </c>
+      <c r="I28" s="6">
+        <v>33045</v>
+      </c>
+      <c r="J28" s="6">
+        <v>37545</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="18">
+        <v>28662</v>
+      </c>
+      <c r="F29" s="6">
+        <v>24264</v>
+      </c>
+      <c r="G29" s="6">
+        <v>28376</v>
+      </c>
+      <c r="H29" s="6">
+        <v>31533</v>
+      </c>
+      <c r="I29" s="6">
+        <v>34493</v>
+      </c>
+      <c r="J29" s="6">
+        <v>38498</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="18">
+        <v>29363</v>
+      </c>
+      <c r="F30" s="6">
+        <v>24481</v>
+      </c>
+      <c r="G30" s="6">
+        <v>30105</v>
+      </c>
+      <c r="H30" s="6">
+        <v>29872</v>
+      </c>
+      <c r="I30" s="6">
+        <v>33071</v>
+      </c>
+      <c r="J30" s="6">
+        <v>37186</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>28647</v>
+      </c>
+      <c r="F31" s="10">
+        <v>24074</v>
+      </c>
+      <c r="G31" s="10">
+        <v>29050</v>
+      </c>
+      <c r="H31" s="10">
+        <v>30783</v>
+      </c>
+      <c r="I31" s="10">
+        <v>34629</v>
+      </c>
+      <c r="J31" s="10">
+        <v>39423</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12">
+        <v>2048</v>
+      </c>
+      <c r="C32" s="13">
+        <v>8192</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="12">
+        <v>8</v>
+      </c>
+      <c r="F32" s="29">
+        <v>64</v>
+      </c>
+      <c r="G32" s="29">
+        <v>256</v>
+      </c>
+      <c r="H32" s="29">
+        <v>512</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J32" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="18">
+        <v>25491</v>
+      </c>
+      <c r="F33" s="18">
+        <v>20499</v>
+      </c>
+      <c r="G33" s="6">
+        <v>21121</v>
+      </c>
+      <c r="H33" s="6">
+        <v>22819</v>
+      </c>
+      <c r="I33" s="6">
+        <v>24788</v>
+      </c>
+      <c r="J33" s="6">
+        <v>26478</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="18">
+        <v>25631</v>
+      </c>
+      <c r="F34" s="18">
+        <v>20321</v>
+      </c>
+      <c r="G34" s="6">
+        <v>23209</v>
+      </c>
+      <c r="H34" s="6">
+        <v>25571</v>
+      </c>
+      <c r="I34" s="6">
+        <v>24223</v>
+      </c>
+      <c r="J34" s="6">
+        <v>26058</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="18">
+        <v>26277</v>
+      </c>
+      <c r="F35" s="18">
+        <v>20658</v>
+      </c>
+      <c r="G35" s="6">
+        <v>21874</v>
+      </c>
+      <c r="H35" s="6">
+        <v>24336</v>
+      </c>
+      <c r="I35" s="6">
+        <v>24283</v>
+      </c>
+      <c r="J35" s="6">
+        <v>26781</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="18">
+        <v>26657</v>
+      </c>
+      <c r="F36" s="18">
+        <v>20695</v>
+      </c>
+      <c r="G36" s="6">
+        <v>21084</v>
+      </c>
+      <c r="H36" s="6">
+        <v>24999</v>
+      </c>
+      <c r="I36" s="6">
+        <v>23807</v>
+      </c>
+      <c r="J36" s="6">
+        <v>26693</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="18">
+        <v>26359</v>
+      </c>
+      <c r="F37" s="18">
+        <v>20726</v>
+      </c>
+      <c r="G37" s="6">
+        <v>21310</v>
+      </c>
+      <c r="H37" s="6">
+        <v>22674</v>
+      </c>
+      <c r="I37" s="6">
+        <v>24057</v>
+      </c>
+      <c r="J37" s="6">
+        <v>27451</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="18">
+        <v>25832</v>
+      </c>
+      <c r="F38" s="18">
+        <v>20338</v>
+      </c>
+      <c r="G38" s="6">
+        <v>21732</v>
+      </c>
+      <c r="H38" s="6">
+        <v>24622</v>
+      </c>
+      <c r="I38" s="6">
+        <v>24842</v>
+      </c>
+      <c r="J38" s="6">
+        <v>25622</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="18">
+        <v>26133</v>
+      </c>
+      <c r="F39" s="18">
+        <v>20564</v>
+      </c>
+      <c r="G39" s="6">
+        <v>21462</v>
+      </c>
+      <c r="H39" s="6">
+        <v>24892</v>
+      </c>
+      <c r="I39" s="6">
+        <v>24881</v>
+      </c>
+      <c r="J39" s="6">
+        <v>26776</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10">
+        <v>25837</v>
+      </c>
+      <c r="F40" s="10">
+        <v>21119</v>
+      </c>
+      <c r="G40" s="10">
+        <v>23471</v>
+      </c>
+      <c r="H40" s="10">
+        <v>24691</v>
+      </c>
+      <c r="I40" s="10">
+        <v>23828</v>
+      </c>
+      <c r="J40" s="10">
+        <v>25896</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C41" s="13">
+        <v>2048</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="12">
+        <v>8</v>
+      </c>
+      <c r="F41" s="29">
+        <v>64</v>
+      </c>
+      <c r="G41" s="29">
+        <v>256</v>
+      </c>
+      <c r="H41" s="29">
+        <v>512</v>
+      </c>
+      <c r="I41" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J41" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K41" s="29"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <v>47023</v>
+      </c>
+      <c r="F42" s="6">
+        <v>39241</v>
+      </c>
+      <c r="G42" s="6">
+        <v>58512</v>
+      </c>
+      <c r="H42" s="6">
+        <v>70422</v>
+      </c>
+      <c r="I42" s="6">
+        <v>81043</v>
+      </c>
+      <c r="J42" s="6">
+        <v>89424</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <v>45771</v>
+      </c>
+      <c r="F43" s="6">
+        <v>38899</v>
+      </c>
+      <c r="G43" s="6">
+        <v>57772</v>
+      </c>
+      <c r="H43" s="6">
+        <v>70515</v>
+      </c>
+      <c r="I43" s="6">
+        <v>81144</v>
+      </c>
+      <c r="J43" s="6">
+        <v>89616</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="18">
+        <v>46632</v>
+      </c>
+      <c r="F44" s="6">
+        <v>38763</v>
+      </c>
+      <c r="G44" s="6">
+        <v>55766</v>
+      </c>
+      <c r="H44" s="6">
+        <v>70609</v>
+      </c>
+      <c r="I44" s="6">
+        <v>82344</v>
+      </c>
+      <c r="J44" s="6">
+        <v>89756</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="18">
+        <v>46049</v>
+      </c>
+      <c r="F45" s="6">
+        <v>37402</v>
+      </c>
+      <c r="G45" s="6">
+        <v>57194</v>
+      </c>
+      <c r="H45" s="6">
+        <v>70117</v>
+      </c>
+      <c r="I45" s="6">
+        <v>79203</v>
+      </c>
+      <c r="J45" s="6">
+        <v>89471</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="18">
+        <v>46217</v>
+      </c>
+      <c r="F46" s="6">
+        <v>38763</v>
+      </c>
+      <c r="G46" s="6">
+        <v>56982</v>
+      </c>
+      <c r="H46" s="6">
+        <v>68013</v>
+      </c>
+      <c r="I46" s="6">
+        <v>79622</v>
+      </c>
+      <c r="J46" s="6">
+        <v>90021</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="18">
+        <v>45422</v>
+      </c>
+      <c r="F47" s="6">
+        <v>37072</v>
+      </c>
+      <c r="G47" s="6">
+        <v>62668</v>
+      </c>
+      <c r="H47" s="6">
+        <v>65514</v>
+      </c>
+      <c r="I47" s="6">
+        <v>79168</v>
+      </c>
+      <c r="J47" s="6">
+        <v>94841</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="18">
+        <v>46299</v>
+      </c>
+      <c r="F48" s="6">
+        <v>38988</v>
+      </c>
+      <c r="G48" s="6">
+        <v>60985</v>
+      </c>
+      <c r="H48" s="6">
+        <v>70211</v>
+      </c>
+      <c r="I48" s="6">
+        <v>78869</v>
+      </c>
+      <c r="J48" s="6">
+        <v>90472</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
+        <v>61281</v>
+      </c>
+      <c r="F49" s="10">
+        <v>38569</v>
+      </c>
+      <c r="G49" s="10">
+        <v>60306</v>
+      </c>
+      <c r="H49" s="10">
+        <v>69490</v>
+      </c>
+      <c r="I49" s="10">
+        <v>79743</v>
+      </c>
+      <c r="J49" s="10">
+        <v>90309</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C50" s="13">
+        <v>4096</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="12">
+        <v>8</v>
+      </c>
+      <c r="F50" s="29">
+        <v>64</v>
+      </c>
+      <c r="G50" s="29">
+        <v>256</v>
+      </c>
+      <c r="H50" s="29">
+        <v>512</v>
+      </c>
+      <c r="I50" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J50" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K50" s="29">
+        <v>4096</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="18">
+        <v>152355</v>
+      </c>
+      <c r="F51" s="18">
+        <v>127064</v>
+      </c>
+      <c r="G51" s="6">
+        <v>187478</v>
+      </c>
+      <c r="H51" s="6">
+        <v>228783</v>
+      </c>
+      <c r="I51" s="6">
+        <v>267173</v>
+      </c>
+      <c r="J51" s="6">
+        <v>305663</v>
+      </c>
+      <c r="K51" s="6">
+        <v>313508</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="18">
+        <v>152155</v>
+      </c>
+      <c r="F52" s="18">
+        <v>126058</v>
+      </c>
+      <c r="G52" s="6">
+        <v>187752</v>
+      </c>
+      <c r="H52" s="6">
+        <v>233750</v>
+      </c>
+      <c r="I52" s="6">
+        <v>264128</v>
+      </c>
+      <c r="J52" s="6">
+        <v>309004</v>
+      </c>
+      <c r="K52" s="6">
+        <v>320665</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="18">
+        <v>154203</v>
+      </c>
+      <c r="F53" s="18">
+        <v>131276</v>
+      </c>
+      <c r="G53" s="6">
+        <v>191269</v>
+      </c>
+      <c r="H53" s="6">
+        <v>231282</v>
+      </c>
+      <c r="I53" s="6">
+        <v>260373</v>
+      </c>
+      <c r="J53" s="6">
+        <v>303936</v>
+      </c>
+      <c r="K53" s="6">
+        <v>309754</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="18">
+        <v>151386</v>
+      </c>
+      <c r="F54" s="18">
+        <v>136015</v>
+      </c>
+      <c r="G54" s="6">
+        <v>195856</v>
+      </c>
+      <c r="H54" s="6">
+        <v>232657</v>
+      </c>
+      <c r="I54" s="6">
+        <v>266599</v>
+      </c>
+      <c r="J54" s="6">
+        <v>303574</v>
+      </c>
+      <c r="K54" s="6">
+        <v>307754</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="18">
+        <v>153220</v>
+      </c>
+      <c r="F55" s="18">
+        <v>132773</v>
+      </c>
+      <c r="G55" s="6">
+        <v>191375</v>
+      </c>
+      <c r="H55" s="6">
+        <v>227948</v>
+      </c>
+      <c r="I55" s="6">
+        <v>259516</v>
+      </c>
+      <c r="J55" s="6">
+        <v>304240</v>
+      </c>
+      <c r="K55" s="6">
+        <v>307336</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="18">
+        <v>152234</v>
+      </c>
+      <c r="F56" s="18">
+        <v>132963</v>
+      </c>
+      <c r="G56" s="6">
+        <v>189241</v>
+      </c>
+      <c r="H56" s="6">
+        <v>226402</v>
+      </c>
+      <c r="I56" s="6">
+        <v>266401</v>
+      </c>
+      <c r="J56" s="6">
+        <v>305813</v>
+      </c>
+      <c r="K56" s="6">
+        <v>311904</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="18">
+        <v>153034</v>
+      </c>
+      <c r="F57" s="18">
+        <v>127353</v>
+      </c>
+      <c r="G57" s="6">
+        <v>180605</v>
+      </c>
+      <c r="H57" s="6">
+        <v>236618</v>
+      </c>
+      <c r="I57" s="6">
+        <v>269609</v>
+      </c>
+      <c r="J57" s="6">
+        <v>299206</v>
+      </c>
+      <c r="K57" s="6">
+        <v>303775</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10">
+        <v>150939</v>
+      </c>
+      <c r="F58" s="10">
+        <v>131883</v>
+      </c>
+      <c r="G58" s="10">
+        <v>193067</v>
+      </c>
+      <c r="H58" s="10">
+        <v>233084</v>
+      </c>
+      <c r="I58" s="10">
+        <v>263500</v>
+      </c>
+      <c r="J58" s="10">
+        <v>303890</v>
+      </c>
+      <c r="K58" s="10">
+        <v>308786</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C59" s="13">
+        <v>8192</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="12">
+        <v>8</v>
+      </c>
+      <c r="F59" s="29">
+        <v>64</v>
+      </c>
+      <c r="G59" s="29">
+        <v>256</v>
+      </c>
+      <c r="H59" s="29">
+        <v>512</v>
+      </c>
+      <c r="I59" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J59" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K59" s="29">
+        <v>4096</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <v>121688</v>
+      </c>
+      <c r="F60" s="6">
+        <v>103033</v>
+      </c>
+      <c r="G60" s="6">
+        <v>127380</v>
+      </c>
+      <c r="H60" s="6">
+        <v>144834</v>
+      </c>
+      <c r="I60" s="6">
+        <v>167255</v>
+      </c>
+      <c r="J60" s="6">
+        <v>181472</v>
+      </c>
+      <c r="K60" s="6">
+        <v>193717</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <v>120922</v>
+      </c>
+      <c r="F61" s="6">
+        <v>101898</v>
+      </c>
+      <c r="G61" s="6">
+        <v>125632</v>
+      </c>
+      <c r="H61" s="6">
+        <v>145972</v>
+      </c>
+      <c r="I61" s="6">
+        <v>164623</v>
+      </c>
+      <c r="J61" s="6">
+        <v>187348</v>
+      </c>
+      <c r="K61" s="6">
+        <v>192452</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <v>121352</v>
+      </c>
+      <c r="F62" s="6">
+        <v>101411</v>
+      </c>
+      <c r="G62" s="6">
+        <v>124160</v>
+      </c>
+      <c r="H62" s="6">
+        <v>150308</v>
+      </c>
+      <c r="I62" s="6">
+        <v>167477</v>
+      </c>
+      <c r="J62" s="6">
+        <v>191271</v>
+      </c>
+      <c r="K62" s="6">
+        <v>190311</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6">
+        <v>124031</v>
+      </c>
+      <c r="F63" s="6">
+        <v>102419</v>
+      </c>
+      <c r="G63" s="6">
+        <v>123325</v>
+      </c>
+      <c r="H63" s="6">
+        <v>143551</v>
+      </c>
+      <c r="I63" s="6">
+        <v>161594</v>
+      </c>
+      <c r="J63" s="6">
+        <v>182919</v>
+      </c>
+      <c r="K63" s="6">
+        <v>188606</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6">
+        <v>119521</v>
+      </c>
+      <c r="F64" s="6">
+        <v>100197</v>
+      </c>
+      <c r="G64" s="6">
+        <v>130938</v>
+      </c>
+      <c r="H64" s="6">
+        <v>143656</v>
+      </c>
+      <c r="I64" s="6">
+        <v>161502</v>
+      </c>
+      <c r="J64" s="6">
+        <v>195103</v>
+      </c>
+      <c r="K64" s="6">
+        <v>200486</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <v>121167</v>
+      </c>
+      <c r="F65" s="6">
+        <v>101397</v>
+      </c>
+      <c r="G65" s="6">
+        <v>125577</v>
+      </c>
+      <c r="H65" s="6">
+        <v>147890</v>
+      </c>
+      <c r="I65" s="6">
+        <v>161760</v>
+      </c>
+      <c r="J65" s="6">
+        <v>182001</v>
+      </c>
+      <c r="K65" s="6">
+        <v>188857</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <v>121555</v>
+      </c>
+      <c r="F66" s="6">
+        <v>99361</v>
+      </c>
+      <c r="G66" s="6">
+        <v>130673</v>
+      </c>
+      <c r="H66" s="6">
+        <v>145880</v>
+      </c>
+      <c r="I66" s="6">
+        <v>164519</v>
+      </c>
+      <c r="J66" s="6">
+        <v>183634</v>
+      </c>
+      <c r="K66" s="6">
+        <v>191162</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10">
+        <v>120566</v>
+      </c>
+      <c r="F67" s="10">
+        <v>99846</v>
+      </c>
+      <c r="G67" s="10">
+        <v>125044</v>
+      </c>
+      <c r="H67" s="10">
+        <v>145755</v>
+      </c>
+      <c r="I67" s="10">
+        <v>164237</v>
+      </c>
+      <c r="J67" s="10">
+        <v>182395</v>
+      </c>
+      <c r="K67" s="10">
+        <v>194403</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="5">
+        <v>8192</v>
+      </c>
+      <c r="C68" s="13">
+        <v>8192</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="12">
+        <v>8</v>
+      </c>
+      <c r="F68" s="29">
+        <v>64</v>
+      </c>
+      <c r="G68" s="29">
+        <v>256</v>
+      </c>
+      <c r="H68" s="29">
+        <v>512</v>
+      </c>
+      <c r="I68" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J68" s="29">
+        <v>2048</v>
+      </c>
+      <c r="K68" s="29">
+        <v>4096</v>
+      </c>
+      <c r="L68" s="13">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6">
+        <v>642031</v>
+      </c>
+      <c r="F69" s="6">
+        <v>520539</v>
+      </c>
+      <c r="G69" s="6">
+        <v>748600</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1224273</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1305113</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1422453</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1417199</v>
+      </c>
+      <c r="L69" s="17">
+        <v>1533329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <v>629534</v>
+      </c>
+      <c r="F70" s="6">
+        <v>523477</v>
+      </c>
+      <c r="G70" s="6">
+        <v>764844</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1218246</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1286706</v>
+      </c>
+      <c r="J70" s="6">
+        <v>1385708</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1405983</v>
+      </c>
+      <c r="L70" s="17">
+        <v>1430315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <v>628434</v>
+      </c>
+      <c r="F71" s="6">
+        <v>516878</v>
+      </c>
+      <c r="G71" s="6">
+        <v>755463</v>
+      </c>
+      <c r="H71" s="6">
+        <v>1219525</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1284689</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1378850</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1400557</v>
+      </c>
+      <c r="L71" s="17">
+        <v>1404187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6">
+        <v>634097</v>
+      </c>
+      <c r="F72" s="6">
+        <v>520727</v>
+      </c>
+      <c r="G72" s="6">
+        <v>759305</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1221296</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1311017</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1386767</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1432742</v>
+      </c>
+      <c r="L72" s="17">
+        <v>1400741</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6">
+        <v>628001</v>
+      </c>
+      <c r="F73" s="6">
+        <v>525856</v>
+      </c>
+      <c r="G73" s="6">
+        <v>757688</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1207976</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1281116</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1392444</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1422475</v>
+      </c>
+      <c r="L73" s="17">
+        <v>1515169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <v>627270</v>
+      </c>
+      <c r="F74" s="6">
+        <v>521104</v>
+      </c>
+      <c r="G74" s="6">
+        <v>768259</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1225830</v>
+      </c>
+      <c r="I74" s="6">
+        <v>1281276</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1414693</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1412861</v>
+      </c>
+      <c r="L74" s="17">
+        <v>1508472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
+        <v>630124</v>
+      </c>
+      <c r="F75" s="6">
+        <v>526307</v>
+      </c>
+      <c r="G75" s="6">
+        <v>728043</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1229356</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1306035</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1391366</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1426463</v>
+      </c>
+      <c r="L75" s="17">
+        <v>1422766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="22"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10">
+        <v>631604</v>
+      </c>
+      <c r="F76" s="10">
+        <v>528703</v>
+      </c>
+      <c r="G76" s="10">
+        <v>752998</v>
+      </c>
+      <c r="H76" s="10">
+        <v>1227994</v>
+      </c>
+      <c r="I76" s="10">
+        <v>1285539</v>
+      </c>
+      <c r="J76" s="10">
+        <v>1392192</v>
+      </c>
+      <c r="K76" s="10">
+        <v>1445237</v>
+      </c>
+      <c r="L76" s="11">
+        <v>1407179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>